--- a/Excel_Sales_Dashboard.xlsx
+++ b/Excel_Sales_Dashboard.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rique\OneDrive\Área de Trabalho\PC\TI\PostgreSQL\Dashboarddeacompanhamentodevendas\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B6D9E-DD98-44DB-8B51-A5BF2DEB724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F01F14-1620-4D0A-8F64-C3311DD57D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="Queries" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$J$3:$K$3</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">Results!$I$3:$I$3</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Results!$I$4:$I$8</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Results!#REF!</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Results!#REF!</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Results!$I$3:$I$3</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Results!$I$4:$I$8</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Results!#REF!</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Results!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$O$3:$P$3</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">Data!$I$3:$I$3</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Data!$I$4:$I$8</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Data!#REF!</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Data!#REF!</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Data!$I$3:$I$3</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Data!$I$4:$I$8</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Data!#REF!</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Data!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>dia_semana</t>
-  </si>
-  <si>
-    <t>dia da semana</t>
-  </si>
-  <si>
-    <t>visitas (#)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>FIAT</t>
   </si>
@@ -127,19 +118,61 @@
     <t>saturday</t>
   </si>
   <si>
-    <t>1 -Revenue, leads, Conversion and Average Tickets month by month
-vv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 -Best Selling Stores
+    <t xml:space="preserve">1 -Revenue, leads, Conversion and Average Tickets month by month
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4-Days of the Week with the Highest Number of Visits in the Website
+    <t>country</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>2 -Best Selling States</t>
+  </si>
+  <si>
+    <t>3 -Best Selling Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 -Best Selling Stores
 </t>
   </si>
   <si>
-    <t>2 -Best Selling Brands</t>
+    <t xml:space="preserve">5-Days of the Week with the Highest Number of Visits in the Website
+</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>day_week</t>
+  </si>
+  <si>
+    <t>day of week</t>
+  </si>
+  <si>
+    <t>visits</t>
   </si>
 </sst>
 </file>
@@ -213,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -233,6 +266,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,12 +295,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF404040"/>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FFFFBE00"/>
-      <color rgb="FF404040"/>
       <color rgb="FFC89400"/>
       <color rgb="FF1C819E"/>
       <color rgb="FF176C83"/>
-      <color rgb="FFBFBFBF"/>
       <color rgb="FFA6A6A6"/>
     </mruColors>
   </colors>
@@ -352,7 +406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$C$3</c:f>
+              <c:f>Data!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -430,7 +484,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Results!$B$4:$B$15</c:f>
+              <c:f>Data!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -475,7 +529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$C$4:$C$15</c:f>
+              <c:f>Data!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -544,7 +598,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$F$3</c:f>
+              <c:f>Data!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,7 +684,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Results!$B$4:$B$15</c:f>
+              <c:f>Data!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -675,7 +729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$F$4:$F$15</c:f>
+              <c:f>Data!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1079,7 +1133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$E$3</c:f>
+              <c:f>Data!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1157,7 +1211,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Results!$B$4:$B$15</c:f>
+              <c:f>Data!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1202,7 +1256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$E$4:$E$15</c:f>
+              <c:f>Data!$E$4:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1271,7 +1325,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$G$3</c:f>
+              <c:f>Data!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1357,7 +1411,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Results!$B$4:$B$15</c:f>
+              <c:f>Data!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1402,7 +1456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$G$4:$G$15</c:f>
+              <c:f>Data!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1796,7 +1850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$K$3</c:f>
+              <c:f>Data!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1872,7 +1926,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$J$4:$J$8</c:f>
+              <c:f>Data!$O$4:$O$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1895,7 +1949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$K$4:$K$8</c:f>
+              <c:f>Data!$P$4:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2143,7 +2197,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$O$3</c:f>
+              <c:f>Data!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2218,7 +2272,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$N$4:$N$8</c:f>
+              <c:f>Data!$R$4:$R$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2241,7 +2295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$O$4:$O$8</c:f>
+              <c:f>Data!$S$4:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2489,11 +2543,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$S$3</c:f>
+              <c:f>Data!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>visitas (#)</c:v>
+                  <c:v>visits</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2564,7 +2618,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$R$4:$R$10</c:f>
+              <c:f>Data!$V$4:$V$10</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2593,7 +2647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$S$4:$S$10</c:f>
+              <c:f>Data!$W$4:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2761,6 +2815,306 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1490150029843025E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.95051547852453233"/>
+          <c:h val="0.94133334565179094"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>country</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFBE00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Data!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEAD-49B2-82F3-BAF29A4E4FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="50"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="333876208"/>
+        <c:axId val="253443824"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="333876208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253443824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253443824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="333876208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
@@ -2893,6 +3247,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5421,6 +5815,541 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5626,6 +6555,346 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122396</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Agrupar 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBA5834-9DE0-87CC-266F-D8F06A8C3A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7824787" y="280646"/>
+          <a:ext cx="5638801" cy="4794750"/>
+          <a:chOff x="7870030" y="244927"/>
+          <a:chExt cx="5643564" cy="4794750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Imagem 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405DEB53-F32B-FDC2-C227-BED6E30177EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:duotone>
+              <a:prstClr val="black"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="45000"/>
+                <a:satMod val="400000"/>
+              </a:schemeClr>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8044657" y="255151"/>
+            <a:ext cx="5437188" cy="4784526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Gráfico 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C50F83-D745-E1CA-3568-B0C32B0FD6A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7870030" y="244927"/>
+          <a:ext cx="5643564" cy="4762501"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCFC28D-3BB5-15DA-A1D9-1A60D12937DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11406188" y="595312"/>
+          <a:ext cx="1845468" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Best</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Selling States</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1600" b="0">
+            <a:solidFill>
+              <a:srgbClr val="404040"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F8B195-592F-8534-E932-3BA8FED48680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11739562" y="3940968"/>
+          <a:ext cx="1500188" cy="988219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>734 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  -  SP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>142   -  MG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>110   -  SC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>98     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-   RS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>66     -   RJ</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="404040"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5995,13 +7264,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>-- (Query 2) Best Selling Brands</a:t>
+            <a:t>-- (Query 2) Best Selling States</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>-- Columns: brand, sales</a:t>
+            <a:t>-- Columns: country, state, sales</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6016,31 +7285,40 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	pro.brand AS marca,</a:t>
+            <a:t>	'Brazil' AS country,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	COUNT(fun.paid_date) AS "vendas (#)"</a:t>
+            <a:t>	cus.state AS states,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>FROM sales.funnel AS fun</a:t>
-          </a:r>
+            <a:t>	COUNT(fun.paid_date) AS "sales"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>LEFT JOIN sales.products AS pro</a:t>
+            <a:t>FROM sales.funnel as fun</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	ON fun.product_id = pro.product_id</a:t>
+            <a:t>LEFT JOIN sales.customers AS cus</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>	ON fun.customer_id = cus.customer_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6052,13 +7330,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>GROUP BY marca</a:t>
+            <a:t>GROUP BY country, states</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>ORDER BY "vendas (#)" DESC</a:t>
+            <a:t>ORDER BY "sales" DESC</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6133,78 +7411,210 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>-- (Query 3) Best Selling Stores</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>-- Columns: store, sales (</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- (Query 3) Best Selling Brands</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Columns: brand, sales</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	pro.brand AS marca,</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	COUNT(fun.paid_date) AS "vendas (#)"</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM sales.funnel AS fun</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LEFT JOIN sales.products AS pro</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	ON fun.product_id = pro.product_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUP BY marca</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY "vendas (#)" DESC</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LIMIT 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>SELECT</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	sto.store_name AS store,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	COUNT(fun.paid_date) AS "sales"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>FROM sales.funnel AS fun</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>LEFT JOIN sales.stores AS sto</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>	ON fun.store_id = sto.store_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>GROUP BY store</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>ORDER BY "sales" DESC</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>LIMIT 5</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6213,13 +7623,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>274865</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6236,7 +7646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14970579" y="314325"/>
+          <a:off x="14848115" y="314325"/>
           <a:ext cx="3902529" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6272,8 +7682,279 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- (Query 4) Best Selling Stores</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Columns: store, sales (</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	sto.store_name AS store,</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	COUNT(fun.paid_date) AS "sales"</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM sales.funnel AS fun</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LEFT JOIN sales.stores AS sto</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	ON fun.store_id = sto.store_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUP BY store</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY "sales" DESC</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LIMIT 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269422</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>58511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA51F27-784D-4C3E-88D9-8F089D17486E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="3878036"/>
+          <a:ext cx="3902529" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>-- (Query 4) Days of the Week with the Highest Number of Visits in the Website</a:t>
+            <a:t>-- (Query 5) Days of the Week with the Highest Number of Visits in the Website</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6666,8 +8347,8 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6700,10 +8381,10 @@
   <sheetPr>
     <tabColor rgb="FFFFBE00"/>
   </sheetPr>
-  <dimension ref="B2:S30"/>
+  <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6711,73 +8392,95 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="19" max="21" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="O3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="P3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>2</v>
+      <c r="S3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>44075</v>
       </c>
@@ -6796,30 +8499,44 @@
       <c r="G4" s="4">
         <v>51.857999999999997</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="15">
+        <v>57</v>
+      </c>
+      <c r="L4" s="15">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>734</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>248</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
         <v>18</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>44105</v>
       </c>
@@ -6838,30 +8555,44 @@
       <c r="G5" s="4">
         <v>47.898767142857103</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
+        <v>31</v>
+      </c>
+      <c r="K5" s="15">
+        <v>68</v>
+      </c>
+      <c r="L5" s="15">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1">
+        <v>142</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>237</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
         <v>15</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="1">
         <v>1301</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>44136</v>
       </c>
@@ -6880,30 +8611,44 @@
       <c r="G6" s="4">
         <v>51.784261363636297</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
+        <v>32</v>
+      </c>
+      <c r="K6" s="15">
+        <v>55</v>
+      </c>
+      <c r="L6" s="15">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>110</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
         <v>193</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="1">
         <v>10</v>
       </c>
-      <c r="O6" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="U6" s="1">
         <v>2</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="1">
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>44166</v>
       </c>
@@ -6922,30 +8667,44 @@
       <c r="G7" s="4">
         <v>78.871778484848406</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
+        <v>33</v>
+      </c>
+      <c r="K7" s="15">
+        <v>47</v>
+      </c>
+      <c r="L7" s="15">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>98</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
         <v>136</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="1">
         <v>10</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="U7" s="1">
         <v>3</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="1">
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>44197</v>
       </c>
@@ -6964,30 +8723,44 @@
       <c r="G8" s="4">
         <v>71.788251562499994</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1">
+        <v>34</v>
+      </c>
+      <c r="K8" s="15">
+        <v>73</v>
+      </c>
+      <c r="L8" s="15">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <v>66</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
         <v>108</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1">
         <v>10</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="U8" s="1">
         <v>4</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="V8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="1">
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>44228</v>
       </c>
@@ -7007,17 +8780,17 @@
         <v>53.398469117646997</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="Q9" s="1">
+      <c r="U9" s="1">
         <v>5</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="V9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="1">
         <v>956</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>44256</v>
       </c>
@@ -7036,17 +8809,17 @@
       <c r="G10" s="4">
         <v>66.480609075630198</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="U10" s="1">
         <v>6</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="V10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="1">
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>44287</v>
       </c>
@@ -7066,7 +8839,7 @@
         <v>52.658844507042197</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>44317</v>
       </c>
@@ -7086,7 +8859,7 @@
         <v>54.590041827411099</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>44348</v>
       </c>
@@ -7106,7 +8879,7 @@
         <v>56.331488353140898</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>44378</v>
       </c>
@@ -7126,7 +8899,7 @@
         <v>54.974637921714802</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>44409</v>
       </c>
@@ -7146,7 +8919,7 @@
         <v>54.445048030302999</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="10">
         <v>44075</v>
       </c>
@@ -7155,7 +8928,7 @@
         <v>44105</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:L29" si="0">EDATE(D29,1)</f>
+        <f t="shared" ref="E29:N29" si="0">EDATE(D29,1)</f>
         <v>44136</v>
       </c>
       <c r="F29" s="10">
@@ -7175,27 +8948,29 @@
         <v>44256</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="0"/>
+        <f>EDATE(I29,1)</f>
         <v>44287</v>
       </c>
-      <c r="K29" s="10">
-        <f t="shared" si="0"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
+        <f>EDATE(J29,1)</f>
         <v>44317</v>
       </c>
-      <c r="L29" s="10">
+      <c r="N29" s="10">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="M29" s="10">
-        <f t="shared" ref="M29:N29" si="1">EDATE(L29,1)</f>
+      <c r="O29" s="10">
+        <f t="shared" ref="O29:P29" si="1">EDATE(N29,1)</f>
         <v>44378</v>
       </c>
-      <c r="N29" s="10">
+      <c r="P29" s="10">
         <f t="shared" si="1"/>
         <v>44409</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -7208,6 +8983,8 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7222,8 +8999,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel_Sales_Dashboard.xlsx
+++ b/Excel_Sales_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rique\OneDrive\Área de Trabalho\PC\TI\PostgreSQL\Dashboarddeacompanhamentodevendas\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F01F14-1620-4D0A-8F64-C3311DD57D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560078C9-C2B1-42BA-8585-F631C1DD4B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -265,7 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3016,7 +3015,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6581,8 +6579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7824787" y="280646"/>
-          <a:ext cx="5638801" cy="4794750"/>
+          <a:off x="7813145" y="280646"/>
+          <a:ext cx="5646210" cy="4794750"/>
           <a:chOff x="7870030" y="244927"/>
           <a:chExt cx="5643564" cy="4794750"/>
         </a:xfrm>
@@ -6762,15 +6760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>295009</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>128322</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6785,15 +6783,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11739562" y="3940968"/>
-          <a:ext cx="1500188" cy="988219"/>
+          <a:off x="11725009" y="3718718"/>
+          <a:ext cx="1505480" cy="1255448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -8347,8 +8343,8 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,7 +8403,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -8416,67 +8412,67 @@
       <c r="O2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8505,10 +8501,10 @@
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>57</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>25</v>
       </c>
       <c r="M4" s="1">
@@ -8561,10 +8557,10 @@
       <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>68</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>35</v>
       </c>
       <c r="M5" s="1">
@@ -8617,10 +8613,10 @@
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>55</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>12</v>
       </c>
       <c r="M6" s="1">
@@ -8673,10 +8669,10 @@
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>47</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>5</v>
       </c>
       <c r="M7" s="1">
@@ -8729,10 +8725,10 @@
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>73</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>25</v>
       </c>
       <c r="M8" s="1">
